--- a/data/long_razon/P24_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_4-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>137,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 297,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 540,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 134,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 89,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 123,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 124,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 90,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 190,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 93,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>115,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 276,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 38,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 108,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 109,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 52,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 15,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 129,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 28,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 27,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-48,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 232,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 208,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-71,97; -13,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 67,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 95,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 96,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 91,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 108,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 32,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 177,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 96,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 43,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 61,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 54,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 36,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 60,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 28,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_4-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.890169742611069</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1960843292047686</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3134350785264887</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.584259994193636</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9247802097740725</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.421151237006747</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5632269162127894</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.8084424772909669</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1.182599602307885</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3443335281152924</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.4541492565835334</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.032185649657644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.04124507745868627</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4454462425099793</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2240568839024188</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.2087174974543736</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.000503813583485041</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.192255548194899</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.03210596069833231</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.1505058125324191</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.2672980826577481</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1162934676486003</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.08639852637163084</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.3793295189550076</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.654787167746587</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.778759909319921</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.38093661157248</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.325749987732232</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.940102973564422</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.45854521838862</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.398450825701744</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.938965690702164</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>3.001416724912518</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.216107258520189</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.021939869981248</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.006480834543707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8620443652915304</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1761140042096278</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.136765399302875</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5358182591268668</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1831629712373863</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2150014567568539</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.09937462406165763</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.7129318209788224</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3699844228201587</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1994680498662051</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.01307448119354439</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6298493234469869</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1919671934476309</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3568411092232497</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3046119212533604</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.04418352086708127</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2851041922977863</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2154762954851124</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3066600244172625</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.2544880575628388</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.07771911683422095</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.132199282072436</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2441881042623493</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2555658243883989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.963996279953503</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.095942794410216</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.8565689124368855</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.445022860825923</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8746913418840351</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7826310472671942</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2091607320537915</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.353806292681033</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.9888616030351323</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7405126457311958</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2898417912548352</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.183172491370007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1423937669125622</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5785379770050311</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5209562603273317</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.097748303369687</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1201706885744807</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3080615029289384</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3666080096130768</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.5334991390839939</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1274033930216812</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4189496828568832</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.03928152903508737</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.7360229072467327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5043521058903949</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2599751653636192</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7307751372536174</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.02609906111106586</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3262902763962203</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.14032947737037</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.04909821459424686</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.03893316220431554</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2405267841427929</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.04646261388111517</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2993286816079113</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.2314012166640356</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.689863308812943</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.112957957674862</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.1510140623531395</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.037745431539387</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8776552057559998</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.049349780371183</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.000110049632212</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.165687129314222</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7967659166809586</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.084464577201989</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.2606000544788419</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.541944477167578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.7204699655310094</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3169764691329569</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.03848952883863981</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.8679246611083012</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2861867308925041</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.29069041981764</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1626595187633073</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.6822224445787218</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4131482459189231</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3009621194579044</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.08062050462277151</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.7553890504765091</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.08506160271385894</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.06536616566266974</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2872066054391817</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2810187844634977</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.07255264324212793</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.004148567925664863</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.0607269525862273</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.3591105173054453</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.06901699267353853</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.03413371707647524</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.06724104913286129</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.4628150504151739</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.75644852120084</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.012579744034206</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3129862844630015</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.606669788446937</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7163179853630998</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6524894350049921</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4085313254342928</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.068736647298473</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.8363165047546566</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6179415753169762</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2870674810569458</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.129441910082682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
